--- a/legend.xlsx
+++ b/legend.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +464,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>Green Status: 14 projects</t>
+          <t>Green Status: 12 projects</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr"/>
@@ -502,17 +502,17 @@
       </c>
       <c r="C2" s="7" t="inlineStr">
         <is>
-          <t>Project 123: 14</t>
+          <t>Project 123: 12</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>Project Twinkle Toes: 15</t>
+          <t>Project Twinkle Toes: 13</t>
         </is>
       </c>
       <c r="G2" s="9" t="inlineStr">
         <is>
-          <t>c1: 16</t>
+          <t>c1: 14</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       <c r="E3" s="8" t="inlineStr"/>
       <c r="G3" s="9" t="inlineStr">
         <is>
-          <t>c2: 17</t>
+          <t>c2: 15</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
       <c r="E4" s="8" t="inlineStr"/>
       <c r="G4" s="9" t="inlineStr">
         <is>
-          <t>c3: 18</t>
+          <t>c3: 16</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       <c r="E5" s="8" t="inlineStr"/>
       <c r="G5" s="9" t="inlineStr">
         <is>
-          <t>o1: 19</t>
+          <t>o1: 17</t>
         </is>
       </c>
     </row>
@@ -568,28 +568,28 @@
       <c r="E6" s="8" t="inlineStr"/>
       <c r="G6" s="9" t="inlineStr">
         <is>
-          <t>o2: 20</t>
+          <t>o2: 18</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
         <is>
-          <t>Project zyx: 05</t>
+          <t>Project fgh: 05</t>
         </is>
       </c>
       <c r="C7" s="7" t="inlineStr"/>
       <c r="E7" s="8" t="inlineStr"/>
       <c r="G7" s="9" t="inlineStr">
         <is>
-          <t>o3: 21</t>
+          <t>o3: 19</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>Project fgh: 06</t>
+          <t>Project ghi: 06</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
@@ -599,7 +599,7 @@
     <row r="9">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>Project yxw: 07</t>
+          <t>Project hij: 07</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
@@ -609,7 +609,7 @@
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>Project ghi: 08</t>
+          <t>Project ijk: 08</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
@@ -619,7 +619,7 @@
     <row r="11">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>Project hij: 09</t>
+          <t>Project jkl: 09</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
@@ -629,7 +629,7 @@
     <row r="12">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>Project ijk: 10</t>
+          <t>Project klm: 10</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
@@ -639,32 +639,12 @@
     <row r="13">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>Project jkl: 11</t>
+          <t>TEST: 11</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="E13" s="8" t="inlineStr"/>
       <c r="G13" s="9" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>Project klm: 12</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="E14" s="8" t="inlineStr"/>
-      <c r="G14" s="9" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>TEST: 13</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr"/>
-      <c r="G15" s="9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
